--- a/code/output/Letters.xlsx
+++ b/code/output/Letters.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="300" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="22980" windowHeight="19700" tabRatio="300"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -920,11 +924,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -932,27 +933,11 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Andron Scriptor Web"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -965,9 +950,21 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -975,99 +972,361 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kontortema">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:AQ71"/>
+  <dimension ref="A1:AMK71"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB11" activeCellId="0" sqref="AB11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="5.71428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="2.41326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="2.61224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="2.41326530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="2.01530612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="1.91836734693878"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="2.21428571428571"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="2.31122448979592"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="2.11734693877551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="2.21428571428571"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="1.91836734693878"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="2.61224489795918"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="1.61224489795918"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="2.11734693877551"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="1.81122448979592"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="2.61224489795918"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="1.41326530612245"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="1.91836734693878"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="1.51020408163265"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="2.51020408163265"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="2.11734693877551"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="1.91836734693878"/>
-    <col collapsed="false" hidden="false" max="43" min="28" style="1" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="44" style="1" width="11.5204081632653"/>
+    <col min="1" max="1025" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:43">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1339,7 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1096,7 +1355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:43">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1104,7 +1363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:43">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1235,7 +1494,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:43">
       <c r="A4" s="2" t="s">
         <v>53</v>
       </c>
@@ -1249,7 +1508,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:43">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -1257,7 +1516,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:43">
       <c r="A6" s="2" t="s">
         <v>58</v>
       </c>
@@ -1271,18 +1530,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:43">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:43">
       <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
@@ -1290,7 +1549,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:43">
       <c r="A9" s="2" t="s">
         <v>66</v>
       </c>
@@ -1310,18 +1569,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:43">
       <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:43">
       <c r="A11" s="1" t="s">
         <v>74</v>
       </c>
@@ -1332,7 +1591,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:43">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -1349,46 +1608,46 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:43">
       <c r="A13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>6</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="1">
         <v>9</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>5</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="1">
         <v>4</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="1" t="n">
+      <c r="J13" s="1">
         <v>8</v>
       </c>
-      <c r="K13" s="1" t="n">
+      <c r="K13" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:43">
       <c r="A14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1407,7 +1666,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:43">
       <c r="A15" s="1" t="s">
         <v>89</v>
       </c>
@@ -1415,7 +1674,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:43">
       <c r="A16" s="1" t="s">
         <v>91</v>
       </c>
@@ -1426,15 +1685,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>95</v>
       </c>
@@ -1445,15 +1704,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>99</v>
       </c>
@@ -1461,7 +1720,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>101</v>
       </c>
@@ -1472,7 +1731,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>103</v>
       </c>
@@ -1480,7 +1739,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>105</v>
       </c>
@@ -1502,11 +1761,11 @@
       <c r="G23" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>112</v>
       </c>
@@ -1514,7 +1773,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>114</v>
       </c>
@@ -1525,7 +1784,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
         <v>117</v>
       </c>
@@ -1542,7 +1801,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
@@ -1553,7 +1812,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>124</v>
       </c>
@@ -1561,7 +1820,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>126</v>
       </c>
@@ -1575,20 +1834,20 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>132</v>
       </c>
@@ -1599,7 +1858,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>134</v>
       </c>
@@ -1607,7 +1866,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
         <v>136</v>
       </c>
@@ -1648,7 +1907,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
         <v>149</v>
       </c>
@@ -1656,7 +1915,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:17">
       <c r="A35" s="2" t="s">
         <v>151</v>
       </c>
@@ -1691,7 +1950,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
@@ -1699,7 +1958,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:17">
       <c r="A37" s="2" t="s">
         <v>163</v>
       </c>
@@ -1722,7 +1981,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
         <v>169</v>
       </c>
@@ -1730,7 +1989,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:17">
       <c r="A39" s="2" t="s">
         <v>171</v>
       </c>
@@ -1756,7 +2015,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
         <v>178</v>
       </c>
@@ -1764,7 +2023,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
         <v>180</v>
       </c>
@@ -1775,14 +2034,14 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -1792,7 +2051,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
         <v>187</v>
       </c>
@@ -1820,7 +2079,7 @@
       <c r="K43" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="L43" s="1" t="n">
+      <c r="L43" s="1">
         <v>0</v>
       </c>
       <c r="M43" s="1" t="s">
@@ -1839,7 +2098,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:17">
       <c r="A44" s="2" t="s">
         <v>201</v>
       </c>
@@ -1853,7 +2112,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
         <v>204</v>
       </c>
@@ -1867,7 +2126,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
         <v>208</v>
       </c>
@@ -1875,7 +2134,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:17">
       <c r="A47" s="2" t="s">
         <v>210</v>
       </c>
@@ -1904,7 +2163,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
         <v>218</v>
       </c>
@@ -1924,7 +2183,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>224</v>
       </c>
@@ -1935,7 +2194,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:9">
       <c r="A50" s="2" t="s">
         <v>227</v>
       </c>
@@ -1961,11 +2220,11 @@
         <v>233</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>235</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -1974,11 +2233,11 @@
       <c r="D51" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>239</v>
       </c>
@@ -1989,7 +2248,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:9">
       <c r="A53" s="2" t="s">
         <v>242</v>
       </c>
@@ -2009,15 +2268,15 @@
         <v>246</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>249</v>
       </c>
@@ -2028,7 +2287,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:9">
       <c r="A56" s="2" t="s">
         <v>252</v>
       </c>
@@ -2044,7 +2303,7 @@
       <c r="E56" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="3" t="s">
         <v>256</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -2057,7 +2316,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
         <v>260</v>
       </c>
@@ -2065,7 +2324,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:9">
       <c r="A58" s="2" t="s">
         <v>262</v>
       </c>
@@ -2082,7 +2341,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
         <v>266</v>
       </c>
@@ -2090,7 +2349,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
         <v>268</v>
       </c>
@@ -2098,7 +2357,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:9">
       <c r="A61" s="2" t="s">
         <v>270</v>
       </c>
@@ -2112,7 +2371,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
         <v>273</v>
       </c>
@@ -2123,7 +2382,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:9">
       <c r="A63" s="2" t="s">
         <v>276</v>
       </c>
@@ -2134,14 +2393,14 @@
         <v>277</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:9">
       <c r="A64" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="3" t="s">
         <v>280</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -2157,7 +2416,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
         <v>284</v>
       </c>
@@ -2171,7 +2430,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
         <v>287</v>
       </c>
@@ -2179,7 +2438,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>289</v>
       </c>
@@ -2190,7 +2449,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
         <v>291</v>
       </c>
@@ -2204,7 +2463,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
         <v>294</v>
       </c>
@@ -2212,7 +2471,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
         <v>296</v>
       </c>
@@ -2220,7 +2479,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
         <v>298</v>
       </c>
@@ -2232,12 +2491,16 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/code/output/Letters.xlsx
+++ b/code/output/Letters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="22980" windowHeight="19700" tabRatio="300"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="29720" windowHeight="19700" tabRatio="300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1317,8 +1317,8 @@
   </sheetPr>
   <dimension ref="A1:AMK71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1824,7 +1824,7 @@
       <c r="A29" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C29" s="1" t="s">

--- a/code/output/Letters.xlsx
+++ b/code/output/Letters.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="291">
   <si>
     <t>a</t>
   </si>
@@ -30,9 +30,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>ā</t>
-  </si>
-  <si>
     <t>á</t>
   </si>
   <si>
@@ -273,9 +270,6 @@
     <t>e</t>
   </si>
   <si>
-    <t>ē</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -354,9 +348,6 @@
     <t>I</t>
   </si>
   <si>
-    <t></t>
-  </si>
-  <si>
     <t>i/abbr</t>
   </si>
   <si>
@@ -402,9 +393,6 @@
     <t>k</t>
   </si>
   <si>
-    <t></t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
@@ -414,9 +402,6 @@
     <t>ꝃ</t>
   </si>
   <si>
-    <t></t>
-  </si>
-  <si>
     <t>l</t>
   </si>
   <si>
@@ -726,18 +711,12 @@
     <t>s/abbr</t>
   </si>
   <si>
-    <t>ẜ</t>
-  </si>
-  <si>
     <t></t>
   </si>
   <si>
     <t></t>
   </si>
   <si>
-    <t></t>
-  </si>
-  <si>
     <t>s/sup</t>
   </si>
   <si>
@@ -789,9 +768,6 @@
     <t>ů</t>
   </si>
   <si>
-    <t>ǔ</t>
-  </si>
-  <si>
     <t>ʉ</t>
   </si>
   <si>
@@ -859,9 +835,6 @@
   </si>
   <si>
     <t>ẏ</t>
-  </si>
-  <si>
-    <t>ȳ</t>
   </si>
   <si>
     <t>ý</t>
@@ -925,7 +898,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -936,8 +909,26 @@
       <name val="Andron Scriptor Web"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Menlo Regular"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -948,12 +939,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -972,17 +957,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1317,8 +1322,8 @@
   </sheetPr>
   <dimension ref="A1:AMK71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1326,7 +1331,7 @@
     <col min="1" max="1025" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43 1025:1025">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +1344,7 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1351,266 +1356,264 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="AMK1"/>
+    </row>
+    <row r="2" spans="1:43 1025:1025">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:43">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:43 1025:1025">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:43">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:43 1025:1025">
+      <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:43">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:43 1025:1025">
+      <c r="A5" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:43">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:43 1025:1025">
+      <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:43">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:43 1025:1025">
+      <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:43">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:43 1025:1025">
+      <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:43">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:43 1025:1025">
+      <c r="A9" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:43">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43 1025:1025">
+      <c r="A10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:43 1025:1025">
+      <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:43">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:43 1025:1025">
+      <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:43">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:43 1025:1025">
+      <c r="A13" s="1" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
-      <c r="A13" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="B13" s="1">
         <v>7</v>
@@ -1643,856 +1646,840 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43 1025:1025">
       <c r="A14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="AMK14"/>
+    </row>
+    <row r="15" spans="1:43 1025:1025">
+      <c r="A15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:43 1025:1025">
+      <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:43">
-      <c r="A16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7 1025:1025">
+      <c r="A17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:7 1025:1025">
+      <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7 1025:1025">
+      <c r="A19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:7 1025:1025">
+      <c r="A20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:7 1025:1025">
+      <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:7 1025:1025">
+      <c r="A22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:7 1025:1025">
+      <c r="A23" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="2" t="s">
+      <c r="C23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="AMK23"/>
+    </row>
+    <row r="24" spans="1:7 1025:1025">
+      <c r="A24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="3" t="s">
+    </row>
+    <row r="25" spans="1:7 1025:1025">
+      <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:7 1025:1025">
+      <c r="A26" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:7 1025:1025">
+      <c r="A27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:7 1025:1025">
+      <c r="A28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="1" t="s">
+    </row>
+    <row r="29" spans="1:7 1025:1025">
+      <c r="A29" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="AMK29"/>
+    </row>
+    <row r="30" spans="1:7 1025:1025">
+      <c r="A30" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="AMK30"/>
+    </row>
+    <row r="31" spans="1:7 1025:1025">
+      <c r="A31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7 1025:1025">
+      <c r="A32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30"/>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="L43" s="1">
         <v>0</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B48" s="1" t="s">
+    </row>
+    <row r="49" spans="1:1025">
+      <c r="A49" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E48" s="1" t="s">
+    </row>
+    <row r="50" spans="1:1025">
+      <c r="A50" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="B50" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="2" t="s">
+      <c r="G50" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D50" s="1" t="s">
+    </row>
+    <row r="51" spans="1:1025">
+      <c r="A51" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="AMJ51"/>
+      <c r="AMK51"/>
+    </row>
+    <row r="52" spans="1:1025">
+      <c r="A52" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B51" s="3" t="s">
+    </row>
+    <row r="53" spans="1:1025">
+      <c r="A53" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E53" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B52" s="1" t="s">
+    </row>
+    <row r="54" spans="1:1025">
+      <c r="A54" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="2" t="s">
+    <row r="55" spans="1:1025">
+      <c r="A55" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E53" s="1" t="s">
+    </row>
+    <row r="56" spans="1:1025">
+      <c r="A56" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="E56" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="2" t="s">
+      <c r="AMK56"/>
+    </row>
+    <row r="57" spans="1:1025">
+      <c r="A57" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D56" s="1" t="s">
+    </row>
+    <row r="58" spans="1:1025">
+      <c r="A58" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="B58" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="D58" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="H56" s="1" t="s">
+    </row>
+    <row r="59" spans="1:1025">
+      <c r="A59" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="1" t="s">
+    <row r="60" spans="1:1025">
+      <c r="A60" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="2" t="s">
+    <row r="61" spans="1:1025">
+      <c r="A61" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E58" s="1" t="s">
+    </row>
+    <row r="62" spans="1:1025">
+      <c r="A62" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="1" t="s">
+    <row r="63" spans="1:1025">
+      <c r="A63" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B63" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="2" t="s">
+    <row r="64" spans="1:1025">
+      <c r="A64" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B64" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>283</v>
-      </c>
+      <c r="AMK64"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
